--- a/dataloader/src/test/resources/TestDriver/TestRevenue/ActivityData_May22.xlsx
+++ b/dataloader/src/test/resources/TestDriver/TestRevenue/ActivityData_May22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\ReqAndTestPlans\SBOModel\Revenue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207D13B0-30A4-407F-BC74-6DF0A9FFF4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B08AEEE-0A9A-4FF5-B593-2064A4D6AC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{04F5826A-2203-4AF6-AC38-31E31D2ECDEC}"/>
+    <workbookView xWindow="2550" yWindow="2550" windowWidth="21600" windowHeight="12735" xr2:uid="{04F5826A-2203-4AF6-AC38-31E31D2ECDEC}"/>
   </bookViews>
   <sheets>
     <sheet name="TransactionActivity" sheetId="15" r:id="rId1"/>
@@ -480,7 +480,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="D2" s="5">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
